--- a/Team-Data/2007-08/1-18-2007-08.xlsx
+++ b/Team-Data/2007-08/1-18-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J2" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.315</v>
+        <v>0.312</v>
       </c>
       <c r="O2" t="n">
-        <v>21.9</v>
+        <v>22.3</v>
       </c>
       <c r="P2" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R2" t="n">
         <v>11.9</v>
@@ -714,43 +781,43 @@
         <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U2" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V2" t="n">
         <v>15.5</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X2" t="n">
         <v>5.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z2" t="n">
         <v>22.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>17</v>
@@ -771,22 +838,22 @@
         <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>30</v>
       </c>
       <c r="AO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP2" t="n">
         <v>5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>6</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -798,10 +865,10 @@
         <v>21</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
@@ -816,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="BB2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -848,43 +915,43 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.842</v>
+        <v>0.838</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
         <v>74.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.471</v>
+        <v>0.468</v>
       </c>
       <c r="L3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M3" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.378</v>
+        <v>0.37</v>
       </c>
       <c r="O3" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="P3" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="Q3" t="n">
         <v>0.762</v>
@@ -893,40 +960,40 @@
         <v>9.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.7</v>
+        <v>32.1</v>
       </c>
       <c r="T3" t="n">
-        <v>41.2</v>
+        <v>41.5</v>
       </c>
       <c r="U3" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA3" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AD3" t="n">
         <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,22 +1008,22 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
@@ -968,37 +1035,37 @@
         <v>12</v>
       </c>
       <c r="AR3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
         <v>8</v>
       </c>
       <c r="AT3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV3" t="n">
         <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -1030,91 +1097,91 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
         <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>79</v>
+        <v>78.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M4" t="n">
         <v>17.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="P4" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="R4" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
         <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y4" t="n">
         <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.2</v>
+        <v>95.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
         <v>22</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1123,13 +1190,13 @@
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1138,13 +1205,13 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
         <v>10</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1153,19 +1220,19 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>
@@ -1177,13 +1244,13 @@
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -1212,100 +1279,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>0.395</v>
+        <v>0.405</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M5" t="n">
         <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="O5" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.754</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="S5" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T5" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U5" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V5" t="n">
         <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.2</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
         <v>19</v>
       </c>
-      <c r="AE5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>21</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1314,22 +1381,22 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO5" t="n">
         <v>24</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1350,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,13 +1426,13 @@
         <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -1472,22 +1539,22 @@
         <v>-2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1502,16 +1569,16 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
         <v>2</v>
@@ -1532,7 +1599,7 @@
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -1654,28 +1721,28 @@
         <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
         <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH7" t="n">
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL7" t="n">
         <v>16</v>
@@ -1684,10 +1751,10 @@
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
@@ -1699,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT7" t="n">
         <v>14</v>
@@ -1723,13 +1790,13 @@
         <v>21</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -1836,28 +1903,28 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>17</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>7</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
         <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0.725</v>
+        <v>0.744</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1961,34 +2028,34 @@
         <v>79.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M9" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O9" t="n">
         <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.766</v>
+        <v>0.77</v>
       </c>
       <c r="R9" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S9" t="n">
         <v>29.6</v>
       </c>
       <c r="T9" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U9" t="n">
         <v>23</v>
@@ -1997,7 +2064,7 @@
         <v>11.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>5.1</v>
@@ -2009,16 +2076,16 @@
         <v>20.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2042,7 +2109,7 @@
         <v>9</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
@@ -2054,10 +2121,10 @@
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR9" t="n">
         <v>17</v>
@@ -2066,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="AT9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU9" t="n">
         <v>6</v>
@@ -2075,22 +2142,22 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA9" t="n">
         <v>22</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>0.585</v>
+        <v>0.575</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2146,22 +2213,22 @@
         <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M10" t="n">
         <v>27.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.741</v>
+        <v>0.739</v>
       </c>
       <c r="R10" t="n">
         <v>12.4</v>
@@ -2188,31 +2255,31 @@
         <v>5.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.8</v>
+        <v>108.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2245,13 +2312,13 @@
         <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
@@ -2263,7 +2330,7 @@
         <v>22</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -2382,28 +2449,28 @@
         <v>1.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>16</v>
       </c>
       <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK11" t="n">
         <v>20</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2433,10 +2500,10 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>9</v>
@@ -2445,13 +2512,13 @@
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2594,10 +2661,10 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
         <v>19</v>
@@ -2606,7 +2673,7 @@
         <v>14</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
@@ -2615,25 +2682,25 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
         <v>11</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="n">
         <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.314</v>
+        <v>0.324</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
@@ -2686,64 +2753,64 @@
         <v>33.9</v>
       </c>
       <c r="J13" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.326</v>
+        <v>0.325</v>
       </c>
       <c r="O13" t="n">
         <v>20.4</v>
       </c>
       <c r="P13" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T13" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
         <v>14.7</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X13" t="n">
         <v>5.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.2</v>
+        <v>-4.9</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
@@ -2752,7 +2819,7 @@
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2773,7 +2840,7 @@
         <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN13" t="n">
         <v>27</v>
@@ -2794,10 +2861,10 @@
         <v>7</v>
       </c>
       <c r="AT13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU13" t="n">
         <v>15</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2806,13 +2873,13 @@
         <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2982,13 +3049,13 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>0.282</v>
+        <v>0.263</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>81.40000000000001</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M15" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="O15" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>16.1</v>
@@ -3092,28 +3159,28 @@
         <v>5.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-3.7</v>
+        <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>8</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3140,28 +3207,28 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>20</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3170,22 +3237,22 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>5</v>
       </c>
-      <c r="AY15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>4</v>
-      </c>
       <c r="BA15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
-        <v>0.205</v>
+        <v>0.211</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,67 +3299,67 @@
         <v>35.3</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>76.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M16" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O16" t="n">
         <v>18.4</v>
       </c>
       <c r="P16" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.703</v>
+        <v>0.701</v>
       </c>
       <c r="R16" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
         <v>38.6</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z16" t="n">
         <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC16" t="n">
         <v>-6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3304,7 +3371,7 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -3316,28 +3383,28 @@
         <v>10</v>
       </c>
       <c r="AL16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,7 +3413,7 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
@@ -3361,7 +3428,7 @@
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>-5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3495,16 +3562,16 @@
         <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
@@ -3516,7 +3583,7 @@
         <v>22</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>20</v>
@@ -3543,10 +3610,10 @@
         <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -3578,73 +3645,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J18" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O18" t="n">
         <v>14.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.716</v>
+        <v>0.72</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T18" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U18" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V18" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
         <v>17.9</v>
@@ -3653,10 +3720,10 @@
         <v>92.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,10 +3738,10 @@
         <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK18" t="n">
         <v>25</v>
@@ -3686,7 +3753,7 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,22 +3762,22 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3850,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,25 +3935,25 @@
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
         <v>9</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -3942,58 +4009,58 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.5</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.454</v>
+        <v>0.45</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.37</v>
       </c>
       <c r="O20" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.783</v>
+        <v>0.786</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T20" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V20" t="n">
         <v>12.6</v>
@@ -4005,22 +4072,22 @@
         <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4032,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="AH20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4071,19 +4138,19 @@
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4092,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="n">
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.308</v>
+        <v>0.316</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,40 +4209,40 @@
         <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M21" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O21" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P21" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.708</v>
+        <v>0.705</v>
       </c>
       <c r="R21" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
-        <v>41.6</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="V21" t="n">
         <v>15.5</v>
@@ -4184,13 +4251,13 @@
         <v>6.3</v>
       </c>
       <c r="X21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA21" t="n">
         <v>21.4</v>
@@ -4199,10 +4266,10 @@
         <v>94.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.4</v>
+        <v>-6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4214,10 +4281,10 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
@@ -4226,19 +4293,19 @@
         <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>17</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
@@ -4247,16 +4314,16 @@
         <v>4</v>
       </c>
       <c r="AS21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4268,13 +4335,13 @@
         <v>25</v>
       </c>
       <c r="AZ21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -4402,13 +4469,13 @@
         <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
@@ -4444,7 +4511,7 @@
         <v>25</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4506,7 +4573,7 @@
         <v>35.8</v>
       </c>
       <c r="J23" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K23" t="n">
         <v>0.445</v>
@@ -4515,61 +4582,61 @@
         <v>3.9</v>
       </c>
       <c r="M23" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="N23" t="n">
-        <v>0.323</v>
+        <v>0.325</v>
       </c>
       <c r="O23" t="n">
         <v>18.1</v>
       </c>
       <c r="P23" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.712</v>
+        <v>0.717</v>
       </c>
       <c r="R23" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S23" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W23" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.2</v>
       </c>
-      <c r="Y23" t="n">
-        <v>5.3</v>
-      </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.1</v>
+        <v>-2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>25</v>
@@ -4578,49 +4645,49 @@
         <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
@@ -4632,10 +4699,10 @@
         <v>19</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB23" t="n">
         <v>27</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
         <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="J24" t="n">
-        <v>85.09999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="L24" t="n">
         <v>8.9</v>
       </c>
       <c r="M24" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O24" t="n">
         <v>17.5</v>
@@ -4709,28 +4776,28 @@
         <v>22.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="V24" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W24" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y24" t="n">
         <v>3.8</v>
@@ -4742,13 +4809,13 @@
         <v>20.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4772,16 +4839,16 @@
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM24" t="n">
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>26</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.615</v>
+        <v>0.605</v>
       </c>
       <c r="H25" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J25" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K25" t="n">
         <v>0.461</v>
@@ -4879,37 +4946,37 @@
         <v>6.9</v>
       </c>
       <c r="M25" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.394</v>
+        <v>0.396</v>
       </c>
       <c r="O25" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P25" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R25" t="n">
         <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T25" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U25" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="V25" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X25" t="n">
         <v>4.5</v>
@@ -4921,19 +4988,19 @@
         <v>20.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB25" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE25" t="n">
         <v>9</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>8</v>
@@ -4945,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="AI25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="n">
         <v>25</v>
@@ -4963,16 +5030,16 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
@@ -4981,10 +5048,10 @@
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -4993,10 +5060,10 @@
         <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
         <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.421</v>
+        <v>0.405</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
@@ -5052,22 +5119,22 @@
         <v>35.7</v>
       </c>
       <c r="J26" t="n">
-        <v>78.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L26" t="n">
         <v>5.9</v>
       </c>
       <c r="M26" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O26" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P26" t="n">
         <v>27</v>
@@ -5076,25 +5143,25 @@
         <v>0.795</v>
       </c>
       <c r="R26" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S26" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T26" t="n">
         <v>39.2</v>
       </c>
       <c r="U26" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="V26" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y26" t="n">
         <v>5.3</v>
@@ -5103,25 +5170,25 @@
         <v>22.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.1</v>
+        <v>-3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
         <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>17</v>
@@ -5133,7 +5200,7 @@
         <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
         <v>18</v>
@@ -5142,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5154,10 +5221,10 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5166,16 +5233,16 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
       </c>
       <c r="AY26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
@@ -5187,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>7</v>
@@ -5324,16 +5391,16 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>21</v>
@@ -5342,7 +5409,7 @@
         <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
         <v>10</v>
@@ -5363,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="n">
-        <v>0.231</v>
+        <v>0.237</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J28" t="n">
-        <v>85.7</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.435</v>
@@ -5425,22 +5492,22 @@
         <v>4.7</v>
       </c>
       <c r="M28" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.349</v>
+        <v>0.354</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P28" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
         <v>33.7</v>
@@ -5449,34 +5516,34 @@
         <v>45.5</v>
       </c>
       <c r="U28" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z28" t="n">
         <v>21</v>
       </c>
-      <c r="V28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="W28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>20.8</v>
-      </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.4</v>
+        <v>-7.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,37 +5555,37 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
         <v>26</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AV28" t="n">
         <v>28</v>
@@ -5536,13 +5603,13 @@
         <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
         <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>0.55</v>
+        <v>0.538</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.453</v>
@@ -5610,34 +5677,34 @@
         <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>0.405</v>
+        <v>0.407</v>
       </c>
       <c r="O29" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P29" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.804</v>
+        <v>0.805</v>
       </c>
       <c r="R29" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S29" t="n">
         <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V29" t="n">
         <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
@@ -5652,13 +5719,13 @@
         <v>17.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5670,19 +5737,19 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5700,10 +5767,10 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
@@ -5721,10 +5788,10 @@
         <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -5762,22 +5829,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J30" t="n">
         <v>80.90000000000001</v>
@@ -5789,19 +5856,19 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O30" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="P30" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R30" t="n">
         <v>11.9</v>
@@ -5810,40 +5877,40 @@
         <v>29</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
         <v>25.8</v>
       </c>
       <c r="V30" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AB30" t="n">
         <v>105.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5879,10 +5946,10 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
@@ -5894,10 +5961,10 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX30" t="n">
         <v>24</v>
@@ -5906,7 +5973,7 @@
         <v>29</v>
       </c>
       <c r="AZ30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
@@ -5944,67 +6011,67 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="n">
         <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>0.553</v>
+        <v>0.541</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
       <c r="L31" t="n">
         <v>6.4</v>
       </c>
       <c r="M31" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="N31" t="n">
         <v>0.341</v>
       </c>
       <c r="O31" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P31" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="R31" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S31" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T31" t="n">
         <v>42.9</v>
       </c>
       <c r="U31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V31" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.7</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y31" t="n">
         <v>4.4</v>
@@ -6013,19 +6080,19 @@
         <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>10</v>
@@ -6037,13 +6104,13 @@
         <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6052,13 +6119,13 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6067,7 +6134,7 @@
         <v>9</v>
       </c>
       <c r="AS31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT31" t="n">
         <v>9</v>
@@ -6076,10 +6143,10 @@
         <v>26</v>
       </c>
       <c r="AV31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
@@ -6088,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-18-2007-08</t>
+          <t>2008-01-18</t>
         </is>
       </c>
     </row>
